--- a/mainTrials.xlsx
+++ b/mainTrials.xlsx
@@ -172,7 +172,7 @@
     <t xml:space="preserve">ha_r</t>
   </si>
   <si>
-    <t xml:space="preserve">h_t</t>
+    <t xml:space="preserve">dr_ss</t>
   </si>
   <si>
     <t xml:space="preserve">gestures/girl_S.mp4</t>
@@ -350,8 +350,8 @@
   </sheetPr>
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A65 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -982,7 +982,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>8</v>
@@ -1050,7 +1050,7 @@
         <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>17</v>
